--- a/questions/Server Command Table A8.xlsx.xlsx
+++ b/questions/Server Command Table A8.xlsx.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\akash\SimplicityStudio\v5_workspace\ecen5823-assignment8-akash7071\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A68FFAC-4C62-46F9-87E3-4185A798B6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C45DD93-7358-4501-BCEB-7861419A770B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-45" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="12300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="63">
   <si>
     <t>Client Command Table for A7</t>
   </si>
@@ -82,10 +82,136 @@
     <t>sl_bt_evt_system_soft_timer_id</t>
   </si>
   <si>
-    <t>This event indicates that a soft timer has expired.</t>
-  </si>
-  <si>
-    <t>X</t>
+    <t>Discovering</t>
+  </si>
+  <si>
+    <t>Connected</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_sm_confirm_bonding_id</t>
+  </si>
+  <si>
+    <t>sl_bt_sm_bonding_confirm()</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_sm_confirm_passkey_id</t>
+  </si>
+  <si>
+    <t>save key and display</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_sm_bonded_id</t>
+  </si>
+  <si>
+    <t>Bonded</t>
+  </si>
+  <si>
+    <t>isBonded=1</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_system_external_signal_id</t>
+  </si>
+  <si>
+    <t>Button Pressed</t>
+  </si>
+  <si>
+    <t>sl_bt_sm_passkey_confirm()</t>
+  </si>
+  <si>
+    <t>Button Released</t>
+  </si>
+  <si>
+    <t>sl_bt_gatt_server_send_indication()
+sl_bt_gatt_server_write_attribute_value()</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_gatt_server_characteristic_status_id</t>
+  </si>
+  <si>
+    <t>multiple states</t>
+  </si>
+  <si>
+    <t>sl_bt_sm_configure</t>
+  </si>
+  <si>
+    <t>check if ok to send htm indications
+check if ok to send button state indications
+set respective LEDs on and off
+check for indications in flight
+sl_bt_gatt_server_write_attribute_value(</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_sm_bonding_failed_id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sl_bt_scanner_start()
+</t>
+  </si>
+  <si>
+    <t>sl_bt_sm_delete_bondings()</t>
+  </si>
+  <si>
+    <t>sl_bt_advertiser_stop()</t>
+  </si>
+  <si>
+    <t>sl_bt_connection_set_parameters()</t>
+  </si>
+  <si>
+    <t>connectionHandle
+connection_open=1</t>
+  </si>
+  <si>
+    <t>Confirm with PB0</t>
+  </si>
+  <si>
+    <t>Passkey</t>
+  </si>
+  <si>
+    <t>save button state</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sl_bt_gatt_server_send_indication() </t>
+  </si>
+  <si>
+    <t>write_queue()</t>
+  </si>
+  <si>
+    <t>connection_open=0</t>
+  </si>
+  <si>
+    <t>indication_in_flight=0</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_connection_parameters_id</t>
+  </si>
+  <si>
+    <t>save parameters</t>
+  </si>
+  <si>
+    <t>ok_to_send_button_indications=0/1
+ok_to_send_htm_indications=0/1
+indication_in_flight=1/0</t>
+  </si>
+  <si>
+    <t>gpioLedxSetOn/Off()</t>
+  </si>
+  <si>
+    <t>sl_bt_evt_gatt_server_indication_timeout_id</t>
+  </si>
+  <si>
+    <t>displayUpdate()</t>
+  </si>
+  <si>
+    <t>read_queue()</t>
+  </si>
+  <si>
+    <t>sl_bt_gatt_server_send_indication()</t>
+  </si>
+  <si>
+    <t>indication_in_flight=1</t>
   </si>
   <si>
     <r>
@@ -95,8 +221,8 @@
     <r>
       <rPr>
         <sz val="10"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>sl_bt_gatt_discover_primary_services_by_uuid()
 sl_bt_gatt_discover_characteristics_by_uuid()</t>
@@ -105,109 +231,22 @@
       <rPr>
         <b/>
         <sz val="10"/>
-        <color indexed="8"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">
 </t>
     </r>
   </si>
   <si>
-    <t>sl_bt_gatt_discover_primary_services_by_uuid()</t>
-  </si>
-  <si>
-    <t>connectionHandle=1
-connection_open=1</t>
-  </si>
-  <si>
-    <t>Discovering</t>
-  </si>
-  <si>
-    <t>Connected</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_sm_confirm_bonding_id</t>
-  </si>
-  <si>
-    <t>sl_bt_sm_bonding_confirm()</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_sm_confirm_passkey_id</t>
-  </si>
-  <si>
-    <t>Passkey
-Confirm with PB0</t>
-  </si>
-  <si>
-    <t>save key and display</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_sm_bonded_id</t>
-  </si>
-  <si>
-    <t>Bonded</t>
-  </si>
-  <si>
-    <t>isBonded=1</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_system_external_signal_id</t>
-  </si>
-  <si>
-    <t>Button Pressed</t>
-  </si>
-  <si>
-    <t>sl_bt_sm_passkey_confirm()</t>
-  </si>
-  <si>
-    <t>Button Released</t>
-  </si>
-  <si>
-    <t>sl_bt_gatt_server_send_indication()
-sl_bt_gatt_server_write_attribute_value()</t>
-  </si>
-  <si>
-    <t>button state</t>
-  </si>
-  <si>
-    <t>sl_bt_sm_delete_bondings</t>
-  </si>
-  <si>
-    <t>sl_bt_scanner_start()
-sl_bt_sm_delete_bondings</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_gatt_server_characteristic_status_id</t>
-  </si>
-  <si>
-    <t>multiple states</t>
-  </si>
-  <si>
-    <t>ok_to_send_button_indications
-ok_to_send_htm_indications</t>
-  </si>
-  <si>
-    <t>sl_bt_sm_configure</t>
-  </si>
-  <si>
-    <t>check if ok to send htm indications
-check if ok to send button state indications
-set respective LEDs on and off
-check for indications in flight
-sl_bt_gatt_server_write_attribute_value(</t>
-  </si>
-  <si>
-    <t>sl_bt_evt_sm_bonding_failed_id</t>
+    <t>save flags</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -241,23 +280,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color indexed="14"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="14"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -265,6 +287,27 @@
     <font>
       <sz val="10"/>
       <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -283,7 +326,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -386,11 +429,24 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -417,15 +473,9 @@
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
@@ -433,9 +483,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -445,23 +492,17 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -473,6 +514,29 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -570,8 +634,8 @@
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>373063</xdr:colOff>
-      <xdr:row>47</xdr:row>
-      <xdr:rowOff>113507</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>81757</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -610,6 +674,734 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>312616</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1270000" cy="324448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67F259FF-ACF7-E077-0C55-215D1ED4BEE1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="21199231" y="8372231"/>
+          <a:ext cx="1270000" cy="324448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Add power requirement</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>842292</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>1372578</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1270000" cy="324448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D91A5F3F-3462-442B-9E9E-F2277592677B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14870907" y="1714501"/>
+          <a:ext cx="1270000" cy="324448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Add power requirement</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>994692</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>10747</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1270000" cy="324448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{623AB5CE-0036-494C-B9CB-E0ED657F064E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15023307" y="1866901"/>
+          <a:ext cx="1270000" cy="324448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Add power requirement</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>4092</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>6839</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1270000" cy="324448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="TextBox 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA599DC6-7FAE-45A0-9DA1-344350319355}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15175707" y="2019301"/>
+          <a:ext cx="1270000" cy="324448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Add power requirement</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>156492</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>159239</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1270000" cy="324448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="TextBox 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70181AD-1CB8-44D1-853C-9A07E0C54882}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15328107" y="2171701"/>
+          <a:ext cx="1270000" cy="324448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Add power requirement</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>132861</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1270000" cy="324448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="TextBox 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9465884A-17AA-466D-B429-E9BF6AB705A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17864015" y="11260015"/>
+          <a:ext cx="1270000" cy="324448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>remove power requirement</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>851877</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>60569</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1270000" cy="324448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="TextBox 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{919D3375-0582-43F6-A556-4412D9DC6342}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16023492" y="7084646"/>
+          <a:ext cx="1270000" cy="324448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>Add power requirement</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>402492</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>70339</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1270000" cy="324448"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="TextBox 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53498F24-43B9-4347-9DBD-1AF0DE98A40C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16717107" y="5111262"/>
+          <a:ext cx="1270000" cy="324448"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="12700" cap="flat">
+          <a:noFill/>
+          <a:miter lim="400000"/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="none"/>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+              <a:sym typeface="Helvetica Neue"/>
+            </a:rPr>
+            <a:t>remove power requirement</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1691,10 +2483,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="E10" zoomScale="65" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.36328125" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1703,7 +2495,7 @@
     <col min="2" max="2" width="40.1796875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="26.6328125" style="1" customWidth="1"/>
     <col min="4" max="4" width="21" style="1" customWidth="1"/>
-    <col min="5" max="5" width="49.6328125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="49.6328125" style="34" customWidth="1"/>
     <col min="6" max="6" width="44.81640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.36328125" style="1" customWidth="1"/>
     <col min="8" max="16384" width="16.36328125" style="1"/>
@@ -1711,20 +2503,20 @@
   <sheetData>
     <row r="1" spans="1:6" ht="14.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
-      <c r="B1" s="29" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="31"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="26"/>
     </row>
     <row r="2" spans="1:6" ht="12" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
+      <c r="E2" s="31"/>
       <c r="F2" s="5"/>
     </row>
     <row r="3" spans="1:6" ht="119.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1738,8 +2530,8 @@
       <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>22</v>
+      <c r="E3" s="32" t="s">
+        <v>61</v>
       </c>
       <c r="F3" s="5"/>
     </row>
@@ -1754,7 +2546,7 @@
       <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="32" t="s">
         <v>7</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -1767,325 +2559,435 @@
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="12"/>
+      <c r="D5" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="E5" s="27"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:6" ht="26.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="8"/>
       <c r="B6" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>25</v>
+      <c r="C6" s="30" t="s">
+        <v>20</v>
       </c>
       <c r="D6" s="10"/>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="12"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:6" ht="13.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="13"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="14" t="s">
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="F8" s="15"/>
+      <c r="F8" s="13"/>
     </row>
     <row r="9" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="14" t="s">
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="16"/>
+      <c r="F9" s="14"/>
     </row>
     <row r="10" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="13"/>
-      <c r="E10" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="16"/>
-    </row>
-    <row r="11" spans="1:6" ht="26.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="27" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" ht="26.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="4"/>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4"/>
+      <c r="B14" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13" s="21" t="s">
+      <c r="C14" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="E13" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="24" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D14" s="18"/>
+      <c r="E14" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="4"/>
-      <c r="B15" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="4"/>
-      <c r="B17" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" s="16"/>
-      <c r="E17" s="18" t="s">
+      <c r="B17" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="14" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="16"/>
+      <c r="D17" s="29" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="16"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="16"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="28"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="C19" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="16"/>
-      <c r="E19" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" ht="78.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="19"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="14"/>
+    </row>
+    <row r="20" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="16"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" s="14"/>
+      <c r="E20" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F20" s="14"/>
+    </row>
+    <row r="21" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A21" s="4"/>
-      <c r="B21" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="C21" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D21" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E21" s="22"/>
-      <c r="F21" s="16"/>
-    </row>
-    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="15"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="19" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F21" s="14"/>
+    </row>
+    <row r="22" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="16"/>
-      <c r="D22" s="21"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="16"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="28" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="14"/>
     </row>
     <row r="23" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
-      <c r="B23" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E23" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F23" s="16"/>
-    </row>
-    <row r="24" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
-      <c r="B24" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="19"/>
-    </row>
-    <row r="25" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="35"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="14"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="14"/>
+    </row>
+    <row r="24" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7"/>
+      <c r="B24" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="D24" s="14"/>
+      <c r="E24" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F24" s="14"/>
+    </row>
+    <row r="25" spans="1:6" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A25" s="4"/>
-      <c r="B25" s="4"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-    </row>
-    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="15"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="21"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="14"/>
+    </row>
+    <row r="26" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="4"/>
-      <c r="B26" s="17"/>
-      <c r="C26" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="E26" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="F26" s="16"/>
-    </row>
-    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="14"/>
+    </row>
+    <row r="27" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="16"/>
-      <c r="D27" s="21"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="16"/>
+      <c r="C27" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="18"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="14"/>
     </row>
     <row r="28" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A28" s="4"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-    </row>
-    <row r="29" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="14"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="14"/>
+      <c r="F28" s="14"/>
+    </row>
+    <row r="29" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="4"/>
-      <c r="B29" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="E29" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="F29" s="16"/>
+      <c r="B29" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="D29" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="14"/>
+      <c r="F29" s="14"/>
     </row>
     <row r="30" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A30" s="4"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="16"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="16"/>
-      <c r="F30" s="16"/>
-    </row>
-    <row r="31" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="14"/>
+    </row>
+    <row r="31" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C31" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D31" s="18"/>
+      <c r="E31" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="F31" s="16"/>
+    </row>
+    <row r="32" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="4"/>
+      <c r="B32" s="15"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="16"/>
-      <c r="D31" s="28"/>
-      <c r="E31" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F31" s="16"/>
-    </row>
-    <row r="32" spans="1:6" ht="65.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="4"/>
-      <c r="B32" s="17"/>
-      <c r="C32" s="16"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="23"/>
       <c r="F32" s="16"/>
     </row>
     <row r="33" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="16"/>
-      <c r="D33" s="16"/>
-      <c r="E33" s="16"/>
-      <c r="F33" s="16"/>
+      <c r="C33" s="14"/>
+      <c r="D33" s="14"/>
+      <c r="E33" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F33" s="14"/>
     </row>
     <row r="34" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
-      <c r="B34" s="4"/>
-      <c r="C34" s="16"/>
-      <c r="D34" s="16"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="16"/>
+      <c r="B34" s="15"/>
+      <c r="C34" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D34" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>34</v>
+      </c>
+      <c r="F34" s="14"/>
+    </row>
+    <row r="35" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="14"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="28"/>
+      <c r="F35" s="14"/>
+    </row>
+    <row r="36" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="4"/>
+      <c r="B36" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C36" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D36" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="14"/>
+    </row>
+    <row r="37" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="18"/>
+      <c r="E37" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="F37" s="14"/>
+    </row>
+    <row r="38" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="18"/>
+      <c r="E38" s="28"/>
+      <c r="F38" s="14"/>
+    </row>
+    <row r="39" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="F39" s="14"/>
+    </row>
+    <row r="40" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="28"/>
+      <c r="F40" s="14"/>
+    </row>
+    <row r="41" spans="1:6" ht="65.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="4"/>
+      <c r="B41" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C41" s="14"/>
+      <c r="D41" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E41" s="27"/>
+      <c r="F41" s="14"/>
+    </row>
+    <row r="42" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="4"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="14"/>
+      <c r="D42" s="19"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="14"/>
+    </row>
+    <row r="43" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43" s="28"/>
+      <c r="F43" s="14"/>
+    </row>
+    <row r="44" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="14"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
